--- a/assets/disciplinas/LOB1255.xlsx
+++ b/assets/disciplinas/LOB1255.xlsx
@@ -64,7 +64,7 @@
     <t>Semestre ideal:</t>
   </si>
   <si>
-    <t>EA-4</t>
+    <t>EA-8</t>
   </si>
   <si>
     <t>Objetivos:</t>

--- a/assets/disciplinas/LOB1255.xlsx
+++ b/assets/disciplinas/LOB1255.xlsx
@@ -58,7 +58,7 @@
     <t>Ativação:</t>
   </si>
   <si>
-    <t>01/01/2020</t>
+    <t>01/01/2022</t>
   </si>
   <si>
     <t>Semestre ideal:</t>
@@ -91,25 +91,25 @@
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Geomorfologia Fluvial; Padrões de Drenagem; Ciclo Hidrológico; Escoamentos hidráulicos; medidores; bocais; instrumentos de medição.</t>
+    <t>Geomorfologia Fluvial; Padrões de Drenagem; Escoamentos hidráulicos; medidores; bocais; instrumentos de medição</t>
   </si>
   <si>
     <t>Short syllabus:</t>
   </si>
   <si>
-    <t>River Geomorphology; Drainage Patterns; Hydrological Cycle; Hydraulic flow; meters; nozzles; measuring instruments.</t>
+    <t>River Geomorphology; Drainage Patterns; Hydraulic flow; meters; nozzles; measuring instruments.</t>
   </si>
   <si>
     <t>Programa:</t>
   </si>
   <si>
-    <t>As teorias geomorfológicas; Processos e Formas do relevo; Processos fluviais, morfologias fluviais e padrões de drenagem; Ciclo hidrológico; precipitação; infiltração; evapotranspiração; escoamento superficial; instrumentos de medição; operação de reservatórios; vazões máximas e mínimas: distribuição de frequência, hidrograma unitário; Recursos Hídricos e Balanço Hídrico; propagação de ondas: amortecimento em reservatórios, amortecimento em canais; Demanda de água e disponibilidade dos recursos hídricos. Água subterrânea, aquíferos e poços; modelo matemático de transformação de chuva-vazão.</t>
+    <t>- As teorias geomorfológicas;- Processos e Formas do relevo;- Processos fluviais, morfologias fluviais e padrões de drenagem;- Precipitação;- Infiltração;- Evapotranspiração;- Escoamento superficial;- Instrumentos de medição (Calhas, vertedores e registros);- Operação de reservatórios;- Vazões máximas e mínimas: distribuição de frequência, hidrograma unitário.- Água subterrânea, aquíferos e poços;</t>
   </si>
   <si>
     <t>Syllabus:</t>
   </si>
   <si>
-    <t>Geomorphological theories; Processes and forms of relief; Fluvial processes, river morphologies and drainage patterns; Hydrological cycle; precipitation; infiltration; evapotranspiration; surface runoff; measuring instruments; operation of reservoirs; maximum and minimum flows: frequency distribution, unit hydrograph; Water Resources and Water Balance; wave propagation: damping in reservoirs, damping in channels; Water demand and availability of water resources. Groundwater, aquifers and wells; mathematical model of rain-flow transformation.</t>
+    <t>- Geomorphological theories;- Processes and Forms of relief;- River processes, river morphologies and drainage patterns;- Precipitation;- Infiltration;- Evapotranspiration;- Surface runoff;- Measuring instruments (gutters, spillways and registers);- Reservoir operation;- Maximum and minimum flow rates: frequency distribution, unit hydrograph.- Groundwater, aquifers and wells;</t>
   </si>
   <si>
     <t>Avaliação:</t>

--- a/assets/disciplinas/LOB1255.xlsx
+++ b/assets/disciplinas/LOB1255.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>O curso tem como objetivos: proporcionar aos discentes conhecimentos básicos sobre as formas do relevo e o papel da água como agente geomorfológico; Estudar o sistema básico de circulação de água e os padrões de escoamento; Estudar o sistema fluvial sob a perspectiva da análise ambiental do meio físico enfatizando processos geomorfológicos e hidrológicos; Fornecer ao aluno os conceitos básicos de hidrologia aplicadas ao meio ambiente.</t>
+    <t>9146830 - Danúbia Caporusso Bargos</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -82,61 +82,49 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>9146830 - Danúbia Caporusso Bargos</t>
+    <t>Programa resumido:</t>
+  </si>
+  <si>
+    <t>Short syllabus:</t>
+  </si>
+  <si>
+    <t>River Geomorphology; Drainage Patterns; Hydraulic flow; meters; nozzles; measuring instruments.</t>
+  </si>
+  <si>
+    <t>Programa:</t>
+  </si>
+  <si>
+    <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>- Geomorphological theories;- Processes and Forms of relief;- River processes, river morphologies and drainage patterns;- Precipitation;- Infiltration;- Evapotranspiration;- Surface runoff;- Measuring instruments (gutters, spillways and registers);- Reservoir operation;- Maximum and minimum flow rates: frequency distribution, unit hydrograph.- Groundwater, aquifers and wells;</t>
+  </si>
+  <si>
+    <t>Avaliação:</t>
+  </si>
+  <si>
+    <t>Método:</t>
   </si>
   <si>
     <t>7455355 - Robson da Silva Rocha</t>
   </si>
   <si>
-    <t>Programa resumido:</t>
-  </si>
-  <si>
-    <t>Geomorfologia Fluvial; Padrões de Drenagem; Escoamentos hidráulicos; medidores; bocais; instrumentos de medição</t>
-  </si>
-  <si>
-    <t>Short syllabus:</t>
-  </si>
-  <si>
-    <t>River Geomorphology; Drainage Patterns; Hydraulic flow; meters; nozzles; measuring instruments.</t>
-  </si>
-  <si>
-    <t>Programa:</t>
-  </si>
-  <si>
-    <t>- As teorias geomorfológicas;- Processos e Formas do relevo;- Processos fluviais, morfologias fluviais e padrões de drenagem;- Precipitação;- Infiltração;- Evapotranspiração;- Escoamento superficial;- Instrumentos de medição (Calhas, vertedores e registros);- Operação de reservatórios;- Vazões máximas e mínimas: distribuição de frequência, hidrograma unitário.- Água subterrânea, aquíferos e poços;</t>
-  </si>
-  <si>
-    <t>Syllabus:</t>
-  </si>
-  <si>
-    <t>- Geomorphological theories;- Processes and Forms of relief;- River processes, river morphologies and drainage patterns;- Precipitation;- Infiltration;- Evapotranspiration;- Surface runoff;- Measuring instruments (gutters, spillways and registers);- Reservoir operation;- Maximum and minimum flow rates: frequency distribution, unit hydrograph.- Groundwater, aquifers and wells;</t>
-  </si>
-  <si>
-    <t>Avaliação:</t>
-  </si>
-  <si>
-    <t>Método:</t>
+    <t>Critério:</t>
   </si>
   <si>
     <t>Aulas teóricas e práticas, trabalhos de campo e exercícios dirigidos.Avaliação baseada em provas, exercícios e trabalhos práticos e relatórios.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Média ponderada das notas atribuídas às provas, exercícios e trabalhos práticos e relatórios.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>1 (uma) prova de recuperação (R), sendo considerado aprovado se 0,5(NF + R) ≥ 5,0.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>Barth, F.T. et al. - Modelos para Gerenciamento de Recursos Hídricos. São Paulo: Nobel: ABRH (Coleção ABRH de Recursos Hídricos, Vol. 1)., 1987.Pinto, N.L.S. et al. - Hidrologia Básica. São Paulo: Edgard Blucher, 1976.Tucci, C.E.M. - Hidrologia: Ciência e Aplicação, Porto Alegre, Editora da Universidade - ABRH - EPUSP, 1993, (coleção ABRH de Recursos Hídricos, Vol. 4).Villela, S.M. e Mattos. - Hidrologia Aplicada, São Paulo: Mc Graw-hill do Brasil, 1975.Wilson - Engineering Hydrology, London: Mcmillan, 1969.Roberto, A. N., Porto. R.L.L. e Zahed, K.F. - Sistema de Suporte a Decisões para Análise de Cheias em Bacias Complexas. Anais do XII Simpósio Brasileiro de Recursos Hídricos, 1997.Tucci, C.E.M., Porto, R.L.L. e Barros, M.T. - Drenagem Urbana, Porto Alegre, Editora da Universidade - ABRH - UFRGS, 1995, (coleção ABRH de Recursos Hídricos, Vol. 5)Wanielista, M.,Kersten, R. e Eaglin,R. -Hydrology - Water Quantity and Quality Control, John Wiley &amp; Sons, Inc., 567 pág., 1997.Porto, R.L.L. - Técnicas Quantitativas para o Gerenciamento de Recursos Hídricos, Porto Alegre, Editora da Universidade - ABRH - UFRGS, 1997, (coleção ABRH de Recursos Hídricos, Vol. 6)Ward, A.D. Trimble, S.W. – Environmental Hydrology, 2004, Lewis Publishers, 462 ppBrutsaert, W. – Hydrology: An Introduction, Cambridge University Press, 618 p, ISBN 0521824796, 2005.Gordon, N.D McMahon, T.A. Finlayson, B.L. Gippel, C.J. Nathan, R.J. – Stream Hydrology: An Introduction to Ecologists, Second Edition, John Wiley &amp; Sons Ltd., UK, 526 pp.Brooks,K.N. Ffolliott,P.F. Gregersen,H.M. DeBano,L.F. – Hydrology and the Management of Watersheds, Iowa State University Press, 574 pp, 2003Ghosh,S.N. Desai,V.R. – Environmental Hydrology And Hydraulics: Eco-technological Practices for Sustainable Development, Science Publishers, 416 p, ISBN 978-1-57808-403-6, 2006Shaw, E.M. – Hydrology in Practice, Van Nostrand Rainhold, 2007Baird, A.J. Wilby, R.L. – Eco-Hydrology: Plants and water in terrestrial and aquatic environments, Routledge, 2007CHRISTOFOLETTI, A. Geomorfologia Fluvial. São Paulo: Edgar Blucher Ltda, 1981. 313 p. CHIOSSI, N. Geologia de Engenharia. São Paulo: Oficina de Textos, 2013.WICANDER, R.; MONROE, J.S. Geologia. São Paulo: Cengage Learning, 2017.SILVA, L.P. Hidrologia: Engenharia e meio ambiente. Rio de Janeiro: Elsevier, 2015.POLETO, C. Bacias hidrográficas e recursos hídricos. Rio de Janeiro: Interciência, 2014.</t>
   </si>
 </sst>
 </file>
@@ -492,7 +480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -623,34 +611,40 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="60" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="60" customHeight="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -661,30 +655,30 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="120" customHeight="1">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="60" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -699,7 +693,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
+    <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
@@ -708,28 +702,6 @@
       </c>
       <c r="C21" s="3" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="60" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="120" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOB1255.xlsx
+++ b/assets/disciplinas/LOB1255.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,21 +70,30 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>O curso tem como objetivos: proporcionar aos discentes conhecimentos básicos sobre as formas do relevo e o papel da água como agente geomorfológico; Estudar o sistema básico de circulação de água e os padrões de escoamento; Estudar o sistema fluvial sob a perspectiva da análise ambiental do meio físico enfatizando processos geomorfológicos e hidrológicos; Fornecer ao aluno os conceitos básicos de hidrologia aplicadas ao meio ambiente.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>The course aims to: provide students with a basic knowledge of the forms of relief and the role of water as a geomorphological agent; to study the basic system of circulation of water and the flow patterns; to study the fluvial system from the perspective of environmental analysis of the physical environment emphasizing geomorphological and hydrological processes; Provide the student with the basic concepts of hydrology applied to the environment.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>9146830 - Danúbia Caporusso Bargos</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>The course aims to: provide students with a basic knowledge of the forms of relief and the role of water as a geomorphological agent; to study the basic system of circulation of water and the flow patterns; to study the fluvial system from the perspective of environmental analysis of the physical environment emphasizing geomorphological and hydrological processes; Provide the student with the basic concepts of hydrology applied to the environment.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
+    <t>7455355 - Robson da Silva Rocha</t>
   </si>
   <si>
     <t>Programa resumido:</t>
   </si>
   <si>
+    <t>Geomorfologia Fluvial; Padrões de Drenagem; Escoamentos hidráulicos; medidores; bocais; instrumentos de medição</t>
+  </si>
+  <si>
     <t>Short syllabus:</t>
   </si>
   <si>
@@ -94,6 +103,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>- As teorias geomorfológicas;- Processos e Formas do relevo;- Processos fluviais, morfologias fluviais e padrões de drenagem;- Precipitação;- Infiltração;- Evapotranspiração;- Escoamento superficial;- Instrumentos de medição (Calhas, vertedores e registros);- Operação de reservatórios;- Vazões máximas e mínimas: distribuição de frequência, hidrograma unitário.- Água subterrânea, aquíferos e poços;</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -106,25 +118,25 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>7455355 - Robson da Silva Rocha</t>
+    <t>Aulas teóricas e práticas, trabalhos de campo e exercícios dirigidos.Avaliação baseada em provas, exercícios e trabalhos práticos e relatórios.</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Aulas teóricas e práticas, trabalhos de campo e exercícios dirigidos.Avaliação baseada em provas, exercícios e trabalhos práticos e relatórios.</t>
+    <t>Média ponderada das notas atribuídas às provas, exercícios e trabalhos práticos e relatórios.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Média ponderada das notas atribuídas às provas, exercícios e trabalhos práticos e relatórios.</t>
+    <t>1 (uma) prova de recuperação (R), sendo considerado aprovado se 0,5(NF + R) ≥ 5,0.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>1 (uma) prova de recuperação (R), sendo considerado aprovado se 0,5(NF + R) ≥ 5,0.</t>
+    <t>Barth, F.T. et al. - Modelos para Gerenciamento de Recursos Hídricos. São Paulo: Nobel: ABRH (Coleção ABRH de Recursos Hídricos, Vol. 1)., 1987.Pinto, N.L.S. et al. - Hidrologia Básica. São Paulo: Edgard Blucher, 1976.Tucci, C.E.M. - Hidrologia: Ciência e Aplicação, Porto Alegre, Editora da Universidade - ABRH - EPUSP, 1993, (coleção ABRH de Recursos Hídricos, Vol. 4).Villela, S.M. e Mattos. - Hidrologia Aplicada, São Paulo: Mc Graw-hill do Brasil, 1975.Wilson - Engineering Hydrology, London: Mcmillan, 1969.Roberto, A. N., Porto. R.L.L. e Zahed, K.F. - Sistema de Suporte a Decisões para Análise de Cheias em Bacias Complexas. Anais do XII Simpósio Brasileiro de Recursos Hídricos, 1997.Tucci, C.E.M., Porto, R.L.L. e Barros, M.T. - Drenagem Urbana, Porto Alegre, Editora da Universidade - ABRH - UFRGS, 1995, (coleção ABRH de Recursos Hídricos, Vol. 5)Wanielista, M.,Kersten, R. e Eaglin,R. -Hydrology - Water Quantity and Quality Control, John Wiley &amp; Sons, Inc., 567 pág., 1997.Porto, R.L.L. - Técnicas Quantitativas para o Gerenciamento de Recursos Hídricos, Porto Alegre, Editora da Universidade - ABRH - UFRGS, 1997, (coleção ABRH de Recursos Hídricos, Vol. 6)Ward, A.D. Trimble, S.W. – Environmental Hydrology, 2004, Lewis Publishers, 462 ppBrutsaert, W. – Hydrology: An Introduction, Cambridge University Press, 618 p, ISBN 0521824796, 2005.Gordon, N.D McMahon, T.A. Finlayson, B.L. Gippel, C.J. Nathan, R.J. – Stream Hydrology: An Introduction to Ecologists, Second Edition, John Wiley &amp; Sons Ltd., UK, 526 pp.Brooks,K.N. Ffolliott,P.F. Gregersen,H.M. DeBano,L.F. – Hydrology and the Management of Watersheds, Iowa State University Press, 574 pp, 2003Ghosh,S.N. Desai,V.R. – Environmental Hydrology And Hydraulics: Eco-technological Practices for Sustainable Development, Science Publishers, 416 p, ISBN 978-1-57808-403-6, 2006Shaw, E.M. – Hydrology in Practice, Van Nostrand Rainhold, 2007Baird, A.J. Wilby, R.L. – Eco-Hydrology: Plants and water in terrestrial and aquatic environments, Routledge, 2007CHRISTOFOLETTI, A. Geomorfologia Fluvial. São Paulo: Edgar Blucher Ltda, 1981. 313 p. CHIOSSI, N. Geologia de Engenharia. São Paulo: Oficina de Textos, 2013.WICANDER, R.; MONROE, J.S. Geologia. São Paulo: Cengage Learning, 2017.SILVA, L.P. Hidrologia: Engenharia e meio ambiente. Rio de Janeiro: Elsevier, 2015.POLETO, C. Bacias hidrográficas e recursos hídricos. Rio de Janeiro: Interciência, 2014.</t>
   </si>
 </sst>
 </file>
@@ -480,13 +492,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -611,40 +623,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="60" customHeight="1">
-      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="120" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -655,30 +661,30 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="120" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -693,7 +699,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
@@ -702,6 +708,28 @@
       </c>
       <c r="C21" s="3" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="60" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="120" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
